--- a/_site/glosario.xlsx
+++ b/_site/glosario.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Glosario</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Género</t>
   </si>
   <si>
-    <t>Fuente</t>
-  </si>
-  <si>
     <t>Rasgo biológico propio de los seres vivos. Variable binaria con dos atributos (femenino/masculino)</t>
   </si>
   <si>
@@ -85,6 +82,18 @@
   </si>
   <si>
     <t>La paridad no es una acción afirmativa o una meta en sí misma, sino una medida para la redistribución de las oportunidades, decisiones y del poder en todas las esferas de la vida; su implementación supone entonces una transformación de las instituciones y de la vida social y en las familias para que hombres y mujeres gocen de igualdad. Fuente: https://campusgenero.inmujeres.gob.mx/glosario/terminos/paridad</t>
+  </si>
+  <si>
+    <t>prospectiva</t>
+  </si>
+  <si>
+    <t>Que se refiere al futuro. Conjunto de análisis y estudios realizados con el fin de explorar o predecir el futuro de alguna determinada materia. Fuente: RAE</t>
+  </si>
+  <si>
+    <t>El análisis prescriptivo recopila información de fuentes descriptivas y/o predictivas y los aplica al proceso de toma de decisiones, orientando sobre el rumbo a seguir. </t>
+  </si>
+  <si>
+    <t>análisis prescriptivo</t>
   </si>
 </sst>
 </file>
@@ -441,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:E11"/>
+  <dimension ref="C1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,95 +469,110 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="3:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="3:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="3:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="3:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+    <row r="5" spans="3:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="3:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="3:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="3:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="3:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="C2:D11">
-    <sortCondition ref="C2:C11"/>
+  <sortState ref="C2:D13">
+    <sortCondition ref="C2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/_site/glosario.xlsx
+++ b/_site/glosario.xlsx
@@ -75,9 +75,6 @@
     <t>brecha</t>
   </si>
   <si>
-    <t>La brecha se calcula como el cociente de la diferencia entre una población de interés y el total. Por ejemplo, la brecha de género se calcula como (mujeres - varones)/(mujeres + varones). La brecha de género es un indicador. Muchas veces se multiplica por 100 para expresarlo en porcentaje.</t>
-  </si>
-  <si>
     <t>La equidad es un principio ético normativo asociado a la idea de justicia. Bajo este concepto se trata de cubrir las necesidades e intereses de personas que son diferentes, especialmente de aquellas que están en desventaja. Los conceptos de equidad e igualdad transmiten mensajes distintos. Equidad es un principio ético normativo abocado a los aspectos pendientes por satisfacer en un determinado sector de la población. Igualdad es un derecho humano que corresponde a todas las personas y que no está sujeto a necesidades específicas. Fuente: https://campusgenero.inmujeres.gob.mx/glosario/terminos/equidad</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>análisis prescriptivo</t>
+  </si>
+  <si>
+    <t>La brecha se calcula como el cociente de la diferencia entre una población de interés y el total. Por ejemplo, la brecha de género se calcula como (varones - mujeres)/(varones + mujeres). La brecha de género es un indicador. Muchas veces se multiplica por 100 para expresarlo en porcentaje.</t>
   </si>
 </sst>
 </file>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,10 +473,10 @@
     </row>
     <row r="2" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="3:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -484,7 +484,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -493,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="3:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -526,7 +526,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -540,10 +540,10 @@
     </row>
     <row r="10" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
